--- a/pred_ohlcv/54_21/2019-10-20 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-15328.4749</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-15097.6574</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-15097.6574</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-13638.4452</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-51088.92498653789</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-50246.92498653789</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-49653.77188653788</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-49875.30448653788</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>15638.1390134621</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>15284.9941134621</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>13290.6399134621</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>9146.188513462104</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>11350.0051134621</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>12659.5623134621</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-32705.93490939828</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-32708.70270939828</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-65951.64540939828</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-65533.74040939827</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-25690.94420939828</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>6820.092129803529</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>6820.092129803529</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>8992.043629803529</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>64901.48852980353</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>18224.0262665281</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>18747.57340325266</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>18747.57340325266</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-20 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 ZRX ohlcv.xlsx
@@ -4110,7 +4110,7 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-49805.18028653788</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-47972.78308653789</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>5564.230313462103</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>15790.6834134621</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>15638.1390134621</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>15692.9941134621</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>15284.9941134621</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>13290.6399134621</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>9146.188513462104</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>11350.0051134621</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>12659.5623134621</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>20596.41568134722</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-32705.93490939828</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-32708.70270939828</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-65951.64540939828</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-65533.74040939827</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-66414.78750939827</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-60306.67290939828</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-60190.32840939828</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-25690.94420939828</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-25553.23954618584</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-26315.23954618584</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-26315.23954618584</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>8992.043629803529</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>64901.48852980353</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>18224.0262665281</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>22543.22960325266</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
